--- a/public/files/questions-sample.xlsx
+++ b/public/files/questions-sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhupeshkhandelwal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344A24A-D1EA-1043-8151-8E261F613040}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E593A14-2591-6B41-B858-DDBC751BC77E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{8D14DB5D-80DA-ED48-B671-D01144EB1631}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8D14DB5D-80DA-ED48-B671-D01144EB1631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>question</t>
   </si>
@@ -36,28 +36,19 @@
     <t>option1</t>
   </si>
   <si>
-    <t>isCorrect1</t>
-  </si>
-  <si>
     <t>option2</t>
   </si>
   <si>
-    <t>isCorrect2</t>
-  </si>
-  <si>
     <t>option3</t>
   </si>
   <si>
-    <t>isCorrect3</t>
-  </si>
-  <si>
     <t>option4</t>
   </si>
   <si>
-    <t>isCorrect4</t>
-  </si>
-  <si>
     <t>What is 2 + 2?</t>
+  </si>
+  <si>
+    <t>isCorrect</t>
   </si>
 </sst>
 </file>
@@ -409,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE67B85-62DC-BB40-98DE-C4CEB42CCA45}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,21 +428,12 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -459,29 +441,21 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/files/questions-sample.xlsx
+++ b/public/files/questions-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhupeshkhandelwal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E593A14-2591-6B41-B858-DDBC751BC77E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977975E5-2A06-C44C-AA23-E0B007EBF301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8D14DB5D-80DA-ED48-B671-D01144EB1631}"/>
   </bookViews>
@@ -33,22 +33,22 @@
     <t>status</t>
   </si>
   <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
     <t>What is 2 + 2?</t>
   </si>
   <si>
     <t>isCorrect</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,42 +416,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
